--- a/Data/About Herbs/raw.xlsx
+++ b/Data/About Herbs/raw.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yingxuan/Documents/SUTD/UROP OncoRx/Data/About Herbs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550F57F0-DA79-A349-8971-62227311797E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16460" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1675,8 +1681,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1752,6 +1758,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1798,7 +1812,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1830,9 +1844,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1864,6 +1896,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2039,14 +2089,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="C266" sqref="C266"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2065,7 +2120,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2076,7 +2131,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2087,7 +2142,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2098,7 +2153,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2109,7 +2164,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2120,7 +2175,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2131,7 +2186,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2142,7 +2197,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2153,7 +2208,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2164,7 +2219,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2175,7 +2230,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2186,7 +2241,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2197,7 +2252,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2208,7 +2263,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2219,7 +2274,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2230,7 +2285,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2241,7 +2296,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2252,7 +2307,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2263,7 +2318,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2274,7 +2329,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2285,7 +2340,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2296,7 +2351,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2307,7 +2362,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2318,7 +2373,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2329,7 +2384,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2340,7 +2395,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2351,7 +2406,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2362,7 +2417,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2373,7 +2428,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2384,7 +2439,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2395,7 +2450,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2406,7 +2461,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2417,7 +2472,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2428,7 +2483,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2439,7 +2494,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2450,7 +2505,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2461,7 +2516,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2472,7 +2527,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2483,7 +2538,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2494,7 +2549,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2505,7 +2560,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2516,7 +2571,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2527,7 +2582,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2538,7 +2593,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2549,7 +2604,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2560,7 +2615,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2571,7 +2626,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2582,7 +2637,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2593,7 +2648,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2604,7 +2659,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2615,7 +2670,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2626,7 +2681,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2637,7 +2692,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2648,7 +2703,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2659,7 +2714,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2670,7 +2725,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2681,7 +2736,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2692,7 +2747,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2703,7 +2758,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2714,7 +2769,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2725,7 +2780,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2736,7 +2791,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2747,7 +2802,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2758,7 +2813,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2769,7 +2824,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2780,7 +2835,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2791,7 +2846,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2802,7 +2857,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2813,7 +2868,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2824,7 +2879,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2835,7 +2890,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2846,7 +2901,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2857,7 +2912,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2868,7 +2923,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2879,7 +2934,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2890,7 +2945,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2901,7 +2956,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2912,7 +2967,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2923,7 +2978,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2934,7 +2989,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2945,7 +3000,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2956,7 +3011,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2967,7 +3022,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2978,7 +3033,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2989,7 +3044,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3000,7 +3055,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3011,7 +3066,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3022,7 +3077,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3033,7 +3088,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3044,7 +3099,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3055,7 +3110,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3066,7 +3121,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3077,7 +3132,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3088,7 +3143,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3099,7 +3154,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3110,7 +3165,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3121,7 +3176,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3132,7 +3187,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3143,7 +3198,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3154,7 +3209,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3165,7 +3220,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3176,7 +3231,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3187,7 +3242,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3198,7 +3253,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3209,7 +3264,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3220,7 +3275,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3231,7 +3286,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3242,7 +3297,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3253,7 +3308,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3264,7 +3319,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3275,7 +3330,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3286,7 +3341,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3297,7 +3352,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3308,7 +3363,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3319,7 +3374,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3330,7 +3385,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3341,7 +3396,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3352,7 +3407,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3363,7 +3418,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3374,7 +3429,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3385,7 +3440,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3396,7 +3451,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3407,7 +3462,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3418,7 +3473,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3429,7 +3484,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3440,7 +3495,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3451,7 +3506,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3462,7 +3517,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3473,7 +3528,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3484,7 +3539,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3495,7 +3550,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3506,7 +3561,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3517,7 +3572,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3528,7 +3583,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3539,7 +3594,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3550,7 +3605,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3561,7 +3616,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3572,7 +3627,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3583,7 +3638,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3594,7 +3649,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3605,7 +3660,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3616,7 +3671,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3627,7 +3682,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3638,7 +3693,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3649,7 +3704,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3660,7 +3715,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3671,7 +3726,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3682,7 +3737,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3693,7 +3748,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3704,7 +3759,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3715,7 +3770,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3726,7 +3781,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3737,7 +3792,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3748,7 +3803,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3759,7 +3814,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3770,7 +3825,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3781,7 +3836,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3792,7 +3847,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3803,7 +3858,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3814,7 +3869,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3825,7 +3880,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3836,7 +3891,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3847,7 +3902,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3858,7 +3913,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3869,7 +3924,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3880,7 +3935,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3891,7 +3946,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3902,7 +3957,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3913,7 +3968,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3924,7 +3979,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3935,7 +3990,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3946,7 +4001,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3957,7 +4012,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3968,7 +4023,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3979,7 +4034,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3990,7 +4045,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4001,7 +4056,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4012,7 +4067,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4023,7 +4078,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4034,7 +4089,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4045,7 +4100,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4056,7 +4111,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4067,7 +4122,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4078,7 +4133,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4089,7 +4144,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4100,7 +4155,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4111,7 +4166,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4122,7 +4177,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4133,7 +4188,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4144,7 +4199,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4155,7 +4210,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4166,7 +4221,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4177,7 +4232,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4188,7 +4243,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4199,7 +4254,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4210,7 +4265,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4221,7 +4276,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4232,7 +4287,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4243,7 +4298,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4254,7 +4309,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4265,7 +4320,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4276,7 +4331,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4287,7 +4342,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4298,7 +4353,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4309,7 +4364,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4320,7 +4375,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4331,7 +4386,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4342,7 +4397,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4353,7 +4408,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4364,7 +4419,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4375,7 +4430,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4386,7 +4441,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4397,7 +4452,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4408,7 +4463,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4419,7 +4474,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4430,7 +4485,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4441,7 +4496,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4452,7 +4507,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4463,7 +4518,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4474,7 +4529,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4485,7 +4540,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4496,7 +4551,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4507,7 +4562,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4518,7 +4573,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4529,7 +4584,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4540,7 +4595,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4551,7 +4606,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4562,7 +4617,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4573,7 +4628,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -4584,7 +4639,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -4595,7 +4650,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -4606,7 +4661,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -4617,7 +4672,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -4628,7 +4683,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -4639,7 +4694,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -4650,7 +4705,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -4661,7 +4716,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -4672,7 +4727,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -4683,7 +4738,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -4694,7 +4749,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4705,7 +4760,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -4716,7 +4771,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4727,7 +4782,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4738,7 +4793,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4749,7 +4804,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4760,7 +4815,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4771,7 +4826,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4782,7 +4837,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4793,7 +4848,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4804,7 +4859,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4815,7 +4870,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4826,7 +4881,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4837,7 +4892,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4848,7 +4903,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4859,7 +4914,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -4870,7 +4925,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -4881,7 +4936,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -4892,7 +4947,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -4903,7 +4958,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -4914,7 +4969,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -4925,7 +4980,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -4936,7 +4991,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -4947,7 +5002,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -4958,7 +5013,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -4969,7 +5024,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -4980,7 +5035,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -4991,7 +5046,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -5002,7 +5057,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -5013,7 +5068,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -5024,7 +5079,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -5035,7 +5090,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -5046,7 +5101,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -5057,7 +5112,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -5068,7 +5123,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -5081,281 +5136,281 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="C31" r:id="rId30"/>
-    <hyperlink ref="C32" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="C34" r:id="rId33"/>
-    <hyperlink ref="C35" r:id="rId34"/>
-    <hyperlink ref="C36" r:id="rId35"/>
-    <hyperlink ref="C37" r:id="rId36"/>
-    <hyperlink ref="C38" r:id="rId37"/>
-    <hyperlink ref="C39" r:id="rId38"/>
-    <hyperlink ref="C40" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C44" r:id="rId43"/>
-    <hyperlink ref="C45" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46"/>
-    <hyperlink ref="C48" r:id="rId47"/>
-    <hyperlink ref="C49" r:id="rId48"/>
-    <hyperlink ref="C50" r:id="rId49"/>
-    <hyperlink ref="C51" r:id="rId50"/>
-    <hyperlink ref="C52" r:id="rId51"/>
-    <hyperlink ref="C53" r:id="rId52"/>
-    <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="C55" r:id="rId54"/>
-    <hyperlink ref="C56" r:id="rId55"/>
-    <hyperlink ref="C57" r:id="rId56"/>
-    <hyperlink ref="C58" r:id="rId57"/>
-    <hyperlink ref="C59" r:id="rId58"/>
-    <hyperlink ref="C60" r:id="rId59"/>
-    <hyperlink ref="C61" r:id="rId60"/>
-    <hyperlink ref="C62" r:id="rId61"/>
-    <hyperlink ref="C63" r:id="rId62"/>
-    <hyperlink ref="C64" r:id="rId63"/>
-    <hyperlink ref="C65" r:id="rId64"/>
-    <hyperlink ref="C66" r:id="rId65"/>
-    <hyperlink ref="C67" r:id="rId66"/>
-    <hyperlink ref="C68" r:id="rId67"/>
-    <hyperlink ref="C69" r:id="rId68"/>
-    <hyperlink ref="C70" r:id="rId69"/>
-    <hyperlink ref="C71" r:id="rId70"/>
-    <hyperlink ref="C72" r:id="rId71"/>
-    <hyperlink ref="C73" r:id="rId72"/>
-    <hyperlink ref="C74" r:id="rId73"/>
-    <hyperlink ref="C75" r:id="rId74"/>
-    <hyperlink ref="C76" r:id="rId75"/>
-    <hyperlink ref="C77" r:id="rId76"/>
-    <hyperlink ref="C78" r:id="rId77"/>
-    <hyperlink ref="C79" r:id="rId78"/>
-    <hyperlink ref="C80" r:id="rId79"/>
-    <hyperlink ref="C81" r:id="rId80"/>
-    <hyperlink ref="C82" r:id="rId81"/>
-    <hyperlink ref="C83" r:id="rId82"/>
-    <hyperlink ref="C84" r:id="rId83"/>
-    <hyperlink ref="C85" r:id="rId84"/>
-    <hyperlink ref="C86" r:id="rId85"/>
-    <hyperlink ref="C87" r:id="rId86"/>
-    <hyperlink ref="C88" r:id="rId87"/>
-    <hyperlink ref="C89" r:id="rId88"/>
-    <hyperlink ref="C90" r:id="rId89"/>
-    <hyperlink ref="C91" r:id="rId90"/>
-    <hyperlink ref="C92" r:id="rId91"/>
-    <hyperlink ref="C93" r:id="rId92"/>
-    <hyperlink ref="C94" r:id="rId93"/>
-    <hyperlink ref="C95" r:id="rId94"/>
-    <hyperlink ref="C96" r:id="rId95"/>
-    <hyperlink ref="C97" r:id="rId96"/>
-    <hyperlink ref="C98" r:id="rId97"/>
-    <hyperlink ref="C99" r:id="rId98"/>
-    <hyperlink ref="C100" r:id="rId99"/>
-    <hyperlink ref="C101" r:id="rId100"/>
-    <hyperlink ref="C102" r:id="rId101"/>
-    <hyperlink ref="C103" r:id="rId102"/>
-    <hyperlink ref="C104" r:id="rId103"/>
-    <hyperlink ref="C105" r:id="rId104"/>
-    <hyperlink ref="C106" r:id="rId105"/>
-    <hyperlink ref="C107" r:id="rId106"/>
-    <hyperlink ref="C108" r:id="rId107"/>
-    <hyperlink ref="C109" r:id="rId108"/>
-    <hyperlink ref="C110" r:id="rId109"/>
-    <hyperlink ref="C111" r:id="rId110"/>
-    <hyperlink ref="C112" r:id="rId111"/>
-    <hyperlink ref="C113" r:id="rId112"/>
-    <hyperlink ref="C114" r:id="rId113"/>
-    <hyperlink ref="C115" r:id="rId114"/>
-    <hyperlink ref="C116" r:id="rId115"/>
-    <hyperlink ref="C117" r:id="rId116"/>
-    <hyperlink ref="C118" r:id="rId117"/>
-    <hyperlink ref="C119" r:id="rId118"/>
-    <hyperlink ref="C120" r:id="rId119"/>
-    <hyperlink ref="C121" r:id="rId120"/>
-    <hyperlink ref="C122" r:id="rId121"/>
-    <hyperlink ref="C123" r:id="rId122"/>
-    <hyperlink ref="C124" r:id="rId123"/>
-    <hyperlink ref="C125" r:id="rId124"/>
-    <hyperlink ref="C126" r:id="rId125"/>
-    <hyperlink ref="C127" r:id="rId126"/>
-    <hyperlink ref="C128" r:id="rId127"/>
-    <hyperlink ref="C129" r:id="rId128"/>
-    <hyperlink ref="C130" r:id="rId129"/>
-    <hyperlink ref="C131" r:id="rId130"/>
-    <hyperlink ref="C132" r:id="rId131"/>
-    <hyperlink ref="C133" r:id="rId132"/>
-    <hyperlink ref="C134" r:id="rId133"/>
-    <hyperlink ref="C135" r:id="rId134"/>
-    <hyperlink ref="C136" r:id="rId135"/>
-    <hyperlink ref="C137" r:id="rId136"/>
-    <hyperlink ref="C138" r:id="rId137"/>
-    <hyperlink ref="C139" r:id="rId138"/>
-    <hyperlink ref="C140" r:id="rId139"/>
-    <hyperlink ref="C141" r:id="rId140"/>
-    <hyperlink ref="C142" r:id="rId141"/>
-    <hyperlink ref="C143" r:id="rId142"/>
-    <hyperlink ref="C144" r:id="rId143"/>
-    <hyperlink ref="C145" r:id="rId144"/>
-    <hyperlink ref="C146" r:id="rId145"/>
-    <hyperlink ref="C147" r:id="rId146"/>
-    <hyperlink ref="C148" r:id="rId147"/>
-    <hyperlink ref="C149" r:id="rId148"/>
-    <hyperlink ref="C150" r:id="rId149"/>
-    <hyperlink ref="C151" r:id="rId150"/>
-    <hyperlink ref="C152" r:id="rId151"/>
-    <hyperlink ref="C153" r:id="rId152"/>
-    <hyperlink ref="C154" r:id="rId153"/>
-    <hyperlink ref="C155" r:id="rId154"/>
-    <hyperlink ref="C156" r:id="rId155"/>
-    <hyperlink ref="C157" r:id="rId156"/>
-    <hyperlink ref="C158" r:id="rId157"/>
-    <hyperlink ref="C159" r:id="rId158"/>
-    <hyperlink ref="C160" r:id="rId159"/>
-    <hyperlink ref="C161" r:id="rId160"/>
-    <hyperlink ref="C162" r:id="rId161"/>
-    <hyperlink ref="C163" r:id="rId162"/>
-    <hyperlink ref="C164" r:id="rId163"/>
-    <hyperlink ref="C165" r:id="rId164"/>
-    <hyperlink ref="C166" r:id="rId165"/>
-    <hyperlink ref="C167" r:id="rId166"/>
-    <hyperlink ref="C168" r:id="rId167"/>
-    <hyperlink ref="C169" r:id="rId168"/>
-    <hyperlink ref="C170" r:id="rId169"/>
-    <hyperlink ref="C171" r:id="rId170"/>
-    <hyperlink ref="C172" r:id="rId171"/>
-    <hyperlink ref="C173" r:id="rId172"/>
-    <hyperlink ref="C174" r:id="rId173"/>
-    <hyperlink ref="C175" r:id="rId174"/>
-    <hyperlink ref="C176" r:id="rId175"/>
-    <hyperlink ref="C177" r:id="rId176"/>
-    <hyperlink ref="C178" r:id="rId177"/>
-    <hyperlink ref="C179" r:id="rId178"/>
-    <hyperlink ref="C180" r:id="rId179"/>
-    <hyperlink ref="C181" r:id="rId180"/>
-    <hyperlink ref="C182" r:id="rId181"/>
-    <hyperlink ref="C183" r:id="rId182"/>
-    <hyperlink ref="C184" r:id="rId183"/>
-    <hyperlink ref="C185" r:id="rId184"/>
-    <hyperlink ref="C186" r:id="rId185"/>
-    <hyperlink ref="C187" r:id="rId186"/>
-    <hyperlink ref="C188" r:id="rId187"/>
-    <hyperlink ref="C189" r:id="rId188"/>
-    <hyperlink ref="C190" r:id="rId189"/>
-    <hyperlink ref="C191" r:id="rId190"/>
-    <hyperlink ref="C192" r:id="rId191"/>
-    <hyperlink ref="C193" r:id="rId192"/>
-    <hyperlink ref="C194" r:id="rId193"/>
-    <hyperlink ref="C195" r:id="rId194"/>
-    <hyperlink ref="C196" r:id="rId195"/>
-    <hyperlink ref="C197" r:id="rId196"/>
-    <hyperlink ref="C198" r:id="rId197"/>
-    <hyperlink ref="C199" r:id="rId198"/>
-    <hyperlink ref="C200" r:id="rId199"/>
-    <hyperlink ref="C201" r:id="rId200"/>
-    <hyperlink ref="C202" r:id="rId201"/>
-    <hyperlink ref="C203" r:id="rId202"/>
-    <hyperlink ref="C204" r:id="rId203"/>
-    <hyperlink ref="C205" r:id="rId204"/>
-    <hyperlink ref="C206" r:id="rId205"/>
-    <hyperlink ref="C207" r:id="rId206"/>
-    <hyperlink ref="C208" r:id="rId207"/>
-    <hyperlink ref="C209" r:id="rId208"/>
-    <hyperlink ref="C210" r:id="rId209"/>
-    <hyperlink ref="C211" r:id="rId210"/>
-    <hyperlink ref="C212" r:id="rId211"/>
-    <hyperlink ref="C213" r:id="rId212"/>
-    <hyperlink ref="C214" r:id="rId213"/>
-    <hyperlink ref="C215" r:id="rId214"/>
-    <hyperlink ref="C216" r:id="rId215"/>
-    <hyperlink ref="C217" r:id="rId216"/>
-    <hyperlink ref="C218" r:id="rId217"/>
-    <hyperlink ref="C219" r:id="rId218"/>
-    <hyperlink ref="C220" r:id="rId219"/>
-    <hyperlink ref="C221" r:id="rId220"/>
-    <hyperlink ref="C222" r:id="rId221"/>
-    <hyperlink ref="C223" r:id="rId222"/>
-    <hyperlink ref="C224" r:id="rId223"/>
-    <hyperlink ref="C225" r:id="rId224"/>
-    <hyperlink ref="C226" r:id="rId225"/>
-    <hyperlink ref="C227" r:id="rId226"/>
-    <hyperlink ref="C228" r:id="rId227"/>
-    <hyperlink ref="C229" r:id="rId228"/>
-    <hyperlink ref="C230" r:id="rId229"/>
-    <hyperlink ref="C231" r:id="rId230"/>
-    <hyperlink ref="C232" r:id="rId231"/>
-    <hyperlink ref="C233" r:id="rId232"/>
-    <hyperlink ref="C234" r:id="rId233"/>
-    <hyperlink ref="C235" r:id="rId234"/>
-    <hyperlink ref="C236" r:id="rId235"/>
-    <hyperlink ref="C237" r:id="rId236"/>
-    <hyperlink ref="C238" r:id="rId237"/>
-    <hyperlink ref="C239" r:id="rId238"/>
-    <hyperlink ref="C240" r:id="rId239"/>
-    <hyperlink ref="C241" r:id="rId240"/>
-    <hyperlink ref="C242" r:id="rId241"/>
-    <hyperlink ref="C243" r:id="rId242"/>
-    <hyperlink ref="C244" r:id="rId243"/>
-    <hyperlink ref="C245" r:id="rId244"/>
-    <hyperlink ref="C246" r:id="rId245"/>
-    <hyperlink ref="C247" r:id="rId246"/>
-    <hyperlink ref="C248" r:id="rId247"/>
-    <hyperlink ref="C249" r:id="rId248"/>
-    <hyperlink ref="C250" r:id="rId249"/>
-    <hyperlink ref="C251" r:id="rId250"/>
-    <hyperlink ref="C252" r:id="rId251"/>
-    <hyperlink ref="C253" r:id="rId252"/>
-    <hyperlink ref="C254" r:id="rId253"/>
-    <hyperlink ref="C255" r:id="rId254"/>
-    <hyperlink ref="C256" r:id="rId255"/>
-    <hyperlink ref="C257" r:id="rId256"/>
-    <hyperlink ref="C258" r:id="rId257"/>
-    <hyperlink ref="C259" r:id="rId258"/>
-    <hyperlink ref="C260" r:id="rId259"/>
-    <hyperlink ref="C261" r:id="rId260"/>
-    <hyperlink ref="C262" r:id="rId261"/>
-    <hyperlink ref="C263" r:id="rId262"/>
-    <hyperlink ref="C264" r:id="rId263"/>
-    <hyperlink ref="C265" r:id="rId264"/>
-    <hyperlink ref="C266" r:id="rId265"/>
-    <hyperlink ref="C267" r:id="rId266"/>
-    <hyperlink ref="C268" r:id="rId267"/>
-    <hyperlink ref="C269" r:id="rId268"/>
-    <hyperlink ref="C270" r:id="rId269"/>
-    <hyperlink ref="C271" r:id="rId270"/>
-    <hyperlink ref="C272" r:id="rId271"/>
-    <hyperlink ref="C273" r:id="rId272"/>
-    <hyperlink ref="C274" r:id="rId273"/>
-    <hyperlink ref="C275" r:id="rId274"/>
-    <hyperlink ref="C276" r:id="rId275"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C249" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C250" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C251" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C252" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C253" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C254" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C255" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C256" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C257" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C258" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C259" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C260" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C261" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="C262" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C263" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C264" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C265" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="C266" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C267" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="C268" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C269" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="C270" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C271" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C272" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C273" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="C274" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C275" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="C276" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
